--- a/data/Nils_250221_20210225-101635/PrBlank.xlsx
+++ b/data/Nils_250221_20210225-101635/PrBlank.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+  <si>
+    <t>Lab. #</t>
+  </si>
   <si>
     <t>U-233</t>
   </si>
@@ -53,12 +56,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -73,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,23 +379,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,368 +421,413 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
+      <c r="A2" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B2" s="1">
         <v>8.160551869844234E-07</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>0.9100758531764502</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>1.563628988327132E-05</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>4.378962563518086E-06</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="1">
         <v>0.0008901770505785979</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="1">
         <v>1.22121290715556</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="1">
         <v>1.195152473397638E-05</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="1">
         <v>2.693928378637379</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
+        <v>10973</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>9.49746049745824</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4.672301830913706E-05</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3.328788872093356E-05</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.003217078382720726</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2048318637219411</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.635050615273535E-06</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3.025808081074095</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
+    <row r="4" spans="1:9" s="1" customFormat="1">
+      <c r="A4" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="1">
         <v>5.017085326397718</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="1">
         <v>2.777758400503381E-05</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="1">
         <v>1.000803369996609E-05</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="1">
         <v>0.001667522462201185</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="1">
         <v>0.9723032632601359</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="1">
         <v>8.72713175610202E-06</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="1">
         <v>4.270356278395851</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
+        <v>10974</v>
+      </c>
+      <c r="B5">
         <v>6.303138911350936E-07</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>3.150262766924641</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5.904334380914833E-06</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.491649794850807E-05</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.00119572158703128</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1.034530675915425</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2.152912143095938E-05</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.532349989026672</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
+    <row r="6" spans="1:9" s="1" customFormat="1">
+      <c r="A6" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B6" s="1">
         <v>1.288717476384907E-05</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1">
         <v>4.021446596519825</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="1">
         <v>2.654870072462198E-05</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="1">
         <v>4.682971465977157E-06</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="1">
         <v>0.00156803135960391</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="1">
         <v>0.3578075891817558</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="1">
         <v>5.620506836900362E-06</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="1">
         <v>2.52798861287538</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
+        <v>10975</v>
+      </c>
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2.52798865006472</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.834558242744872E-06</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2.053533387066911E-05</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.001111163246795472</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.7856210308331072</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.517103639629554E-05</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.030169276817519</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
+    <row r="8" spans="1:9" s="1" customFormat="1">
+      <c r="A8" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B8" s="1">
         <v>3.65552000326926E-06</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="1">
         <v>3.344723546184236</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="1">
         <v>1.280393962302959E-05</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="1">
         <v>1.44959574201472E-06</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="1">
         <v>0.001599573157191762</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="1">
         <v>0.3403061292294066</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="1">
         <v>4.612215750767464E-06</v>
       </c>
-      <c r="H8">
+      <c r="I8" s="1">
         <v>1.024807653799227</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
+        <v>10976</v>
+      </c>
+      <c r="B9">
         <v>8.906899815301991E-07</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2.030169283938882</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>3.964876649686534E-05</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>3.800613967364722E-06</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.001297489374150084</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.3500291529281297</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.288345388920812E-06</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.030169283938882</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
+    <row r="10" spans="1:9" s="1" customFormat="1">
+      <c r="A10" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="1">
         <v>6.759453182612485</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="1">
         <v>1.024301027295204E-05</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="1">
         <v>8.464516316347904E-06</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="1">
         <v>0.001936684673390925</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="1">
         <v>0.26187367509809</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="1">
         <v>7.23967986264783E-07</v>
       </c>
-      <c r="H10">
+      <c r="I10" s="1">
         <v>2.776898267848479</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
+        <v>10977</v>
+      </c>
+      <c r="B11">
         <v>3.177854058298239E-06</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>4.353326178684628</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1.58512033006874E-06</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2.126101679790218E-05</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.001332901492048552</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.9625802389679661</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>7.066009799564039E-06</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2.65244342216289</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+    <row r="12" spans="1:9" s="1" customFormat="1">
+      <c r="A12" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B12" s="1">
         <v>5.798431854607854E-06</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="1">
         <v>3.68956707132593</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="1">
         <v>1.106241100411982E-05</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="1">
         <v>0.001165077196453815</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="1">
         <v>0.4537415032654215</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="1">
         <v>1.55458834030817E-05</v>
       </c>
-      <c r="H12">
+      <c r="I12" s="1">
         <v>2.69392839446263</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13">
+        <v>10978</v>
+      </c>
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>1.864229505516683</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.278120087415255E-06</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>2.601316415296949E-05</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.0009096175499052388</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.52374735019618</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5.855719508943644E-06</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2.901353125403004</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
+    <row r="14" spans="1:9" s="1" customFormat="1">
+      <c r="A14" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B14" s="1">
         <v>3.317173221718219E-06</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="1">
         <v>3.025807925986627</v>
       </c>
-      <c r="C14">
+      <c r="D14" s="1">
         <v>1.156845809076602E-05</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="1">
         <v>7.171432216320541E-06</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="1">
         <v>0.001263269889177358</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="1">
         <v>0.3500291541150233</v>
       </c>
-      <c r="G14">
+      <c r="H14" s="1">
         <v>5.105914180412247E-06</v>
       </c>
-      <c r="H14">
+      <c r="I14" s="1">
         <v>3.52362726837459</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15">
+        <v>10979</v>
+      </c>
+      <c r="B15">
         <v>6.66785664536641E-07</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>6.749731566570406</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>3.958831349325801E-05</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.926651064210998E-05</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.002764617326097378</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.034530672750375</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>9.770936960335757E-06</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.8556268793463907</v>
       </c>
     </row>
